--- a/3SCRUM/SCRUM_PlantillaExcel_grupo4.xlsx
+++ b/3SCRUM/SCRUM_PlantillaExcel_grupo4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\3SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D80179B-A9EB-46A8-A57B-33DA4754CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732589AB-DCD4-4FD2-9653-F57AB0EBA7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -80,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="139">
   <si>
     <t>Start Date</t>
   </si>
@@ -491,6 +489,12 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>SR6</t>
+  </si>
+  <si>
+    <t>SR7</t>
   </si>
 </sst>
 </file>
@@ -1151,11 +1155,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3311,7 +3315,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A16" sqref="A16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3423,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
@@ -3709,12 +3713,12 @@
         <v>100</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="78" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B16" s="79" t="s">
         <v>86</v>
@@ -3735,12 +3739,12 @@
         <v>37</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="78" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B17" s="79" t="s">
         <v>130</v>
@@ -3778,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3860,12 +3864,12 @@
       <c r="B4" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="63" t="s">
         <v>97</v>
       </c>
@@ -3985,7 +3989,7 @@
       <c r="B10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="85" t="s">
         <v>108</v>
       </c>
       <c r="D10" s="87"/>
@@ -4004,12 +4008,12 @@
       <c r="B11" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="66" t="s">
         <v>95</v>
       </c>
@@ -4032,10 +4036,10 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
         <v>74</v>
@@ -4121,7 +4125,7 @@
       <c r="B17" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="87"/>
@@ -4140,12 +4144,12 @@
       <c r="B18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="66" t="s">
         <v>98</v>
       </c>
@@ -4257,12 +4261,12 @@
       <c r="B24" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="68" t="s">
         <v>96</v>
       </c>
@@ -4276,12 +4280,12 @@
       <c r="B25" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="66" t="s">
         <v>96</v>
       </c>
@@ -4393,7 +4397,7 @@
       <c r="B31" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="85" t="s">
         <v>110</v>
       </c>
       <c r="D31" s="87"/>
@@ -4412,12 +4416,12 @@
       <c r="B32" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="66" t="s">
         <v>99</v>
       </c>
@@ -4516,22 +4520,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4543,7 +4547,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,7 +4591,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>35</v>
@@ -4629,7 +4633,7 @@
       <c r="B5" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="87"/>
@@ -4664,9 +4668,9 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
         <v>74</v>
@@ -4714,7 +4718,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>35</v>
@@ -4756,7 +4760,7 @@
       <c r="B12" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="85" t="s">
         <v>133</v>
       </c>
       <c r="D12" s="87"/>
@@ -5264,7 +5268,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>

--- a/3SCRUM/SCRUM_PlantillaExcel_grupo4.xlsx
+++ b/3SCRUM/SCRUM_PlantillaExcel_grupo4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\3SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732589AB-DCD4-4FD2-9653-F57AB0EBA7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693F9F9-E2E0-4135-92A5-6A8B54802434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
   <si>
     <t>Start Date</t>
   </si>
@@ -272,12 +272,6 @@
     <t>Estimado</t>
   </si>
   <si>
-    <t>Validación de datos</t>
-  </si>
-  <si>
-    <t>visualizar los productos que se adquirieron en una compra</t>
-  </si>
-  <si>
     <t>HU11</t>
   </si>
   <si>
@@ -305,18 +299,6 @@
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>HU11-1</t>
-  </si>
-  <si>
-    <t>HU11-2</t>
-  </si>
-  <si>
-    <t>HU12-1</t>
-  </si>
-  <si>
-    <t>HU12-2</t>
-  </si>
-  <si>
     <t>SR1</t>
   </si>
   <si>
@@ -413,12 +395,6 @@
     <t>Crear un programa para la mostrar un mensaje del estado actual de la tierra</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Blocked</t>
-  </si>
-  <si>
     <t>Enter the start date for the sprint.</t>
   </si>
   <si>
@@ -434,9 +410,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>Validación de datos.</t>
-  </si>
-  <si>
     <t>Crear programa para establecer condicion de estacion del año</t>
   </si>
   <si>
@@ -485,9 +458,6 @@
     <t>Enviarla mediante correo electronico</t>
   </si>
   <si>
-    <t>Rafa</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -495,13 +465,34 @@
   </si>
   <si>
     <t>SR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codiciones de Activación </t>
+  </si>
+  <si>
+    <t>SR6-1</t>
+  </si>
+  <si>
+    <t>SR6-2</t>
+  </si>
+  <si>
+    <t>SR7-2</t>
+  </si>
+  <si>
+    <t>SR7-1</t>
+  </si>
+  <si>
+    <t>SR7-3</t>
+  </si>
+  <si>
+    <t>Historial del Riego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +568,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -622,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -694,7 +695,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -709,100 +710,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -854,19 +762,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -950,75 +845,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1027,7 +863,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1035,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,94 +917,220 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1251,24 +1215,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1299,24 +1245,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1356,24 +1284,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1404,24 +1314,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1461,24 +1353,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1512,24 +1386,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1545,24 +1401,6 @@
           <color indexed="64"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1853,10 +1691,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDown1Table!$A$3:$A$13</c:f>
+              <c:f>BurnDown1Table!$A$3:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1889,48 +1727,156 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDown1Table!$B$3:$B$13</c:f>
+              <c:f>BurnDown1Table!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.130434782608695</c:v>
+                  <c:v>38.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.260869565217391</c:v>
+                  <c:v>37.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.391304347826086</c:v>
+                  <c:v>35.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.521739130434781</c:v>
+                  <c:v>34.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.652173913043477</c:v>
+                  <c:v>32.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.782608695652172</c:v>
+                  <c:v>31.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.913043478260867</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.043478260869563</c:v>
+                  <c:v>28.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.173913043478262</c:v>
+                  <c:v>27.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.304347826086957</c:v>
+                  <c:v>25.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.5714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1428571428571388</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.7142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8571428571428541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4285714285714306</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,10 +1934,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDown1Table!$A$3:$A$13</c:f>
+              <c:f>BurnDown1Table!$A$3:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2024,48 +1970,156 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDown1Table!$C$3:$C$13</c:f>
+              <c:f>BurnDown1Table!$C$3:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-53</c:v>
+                  <c:v>27.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-69</c:v>
+                  <c:v>25.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-85</c:v>
+                  <c:v>23.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-101</c:v>
+                  <c:v>21.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-117</c:v>
+                  <c:v>19.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.0000000000000142</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-14.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-16.000000000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,10 +2185,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDown1Table!$A$3:$A$13</c:f>
+              <c:f>BurnDown1Table!$A$3:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2167,27 +2221,81 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDown1Table!$D$3:$D$13</c:f>
+              <c:f>BurnDown1Table!$D$3:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36</c:v>
@@ -2196,19 +2304,73 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,10 +3131,10 @@
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3016,34 +3178,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:D31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
       <calculatedColumnFormula>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3314,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H17"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3327,114 +3489,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="E3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -3447,20 +3609,20 @@
         <v>40</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -3473,20 +3635,20 @@
         <v>42</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -3499,20 +3661,20 @@
         <v>44</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -3525,20 +3687,20 @@
         <v>46</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -3551,20 +3713,20 @@
         <v>48</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -3577,20 +3739,20 @@
         <v>50</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -3603,20 +3765,20 @@
         <v>52</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>69</v>
+      <c r="H11" s="70" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -3629,148 +3791,151 @@
         <v>54</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="75" t="s">
+      <c r="G14" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H14" s="70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>100</v>
+      <c r="G15" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>68</v>
-      </c>
+      <c r="G17" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="81"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3782,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3818,660 +3983,658 @@
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="44" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="34" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="52">
+      <c r="B5" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="61">
-        <f>SUM(I4:I5)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
-      <c r="B7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>10</v>
+      <c r="B7" s="52"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="48">
+        <f>SUM(I4:I6)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="D9" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="22" t="s">
+      <c r="I9" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="77" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="22" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="53">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
-      <c r="B11" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49">
+      <c r="B11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="36">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="61">
-        <f>SUM(I10:I12)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="37"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
-      <c r="B14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>10</v>
+      <c r="B14" s="18"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="48">
+        <f>SUM(I11:I13)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="D16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="22" t="s">
+      <c r="H16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="22" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="22" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="53">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49">
+      <c r="B18" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="36">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="61">
-        <f>SUM(I17:I19)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="37"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
-      <c r="B21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>10</v>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="48">
+        <f>SUM(I18:I20)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="D23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="22" t="s">
+      <c r="I23" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="22" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="22" t="s">
+      <c r="H24" s="56"/>
+      <c r="I24" s="22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="53">
-        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="49">
+      <c r="B25" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="61">
-        <f>SUM(I24:I26)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="37"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
-      <c r="B28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>10</v>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="48">
+        <f>SUM(I25:I27)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="20" t="s">
+      <c r="B29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="20" t="s">
+      <c r="D30" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="22" t="s">
+      <c r="H30" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="22" t="s">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="22" t="s">
+      <c r="H31" s="56"/>
+      <c r="I31" s="22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="53">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="49">
+      <c r="B32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="36">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="61">
-        <f>SUM(I31:I33)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="37"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="48">
+        <f>SUM(I32:I34)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="H36" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="56">
-        <f>I6+I13+I20+I27+I34</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="19"/>
+      <c r="H37" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="43">
+        <f>I7+I14+I21+I28+I35</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
@@ -4519,23 +4682,24 @@
       <c r="A52" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4544,10 +4708,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4591,26 +4755,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="H3" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4630,65 +4796,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="53">
+      <c r="B5" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="60">
-        <f>SUM(I5:I6)</f>
+      <c r="B7" s="37"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="47">
+        <f>SUM(I5:I7)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
@@ -4718,26 +4884,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" s="20" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4757,67 +4925,100 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="85" t="s">
+      <c r="B12" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="45" t="s">
+      <c r="C12" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="53">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="83" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="58">
-        <f>SUM(I12:I13)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H15" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="55">
-        <f>I7+I14</f>
-        <v>29</v>
+      <c r="C14" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="37"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="45">
+        <f>SUM(I12:I15)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="42">
+        <f>I8+I16</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4826,7 +5027,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4847,15 +5048,15 @@
         <v>44545</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
-        <v>44576</v>
+        <v>44582</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -4864,7 +5065,7 @@
       </c>
       <c r="B4" s="3">
         <f>NETWORKDAYS(B2,B3)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -4876,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -4885,7 +5086,7 @@
       </c>
       <c r="B6" s="3">
         <f>B4-B5</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -4894,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -4903,10 +5104,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="8">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -4915,7 +5116,7 @@
       </c>
       <c r="B9" s="3">
         <f>(B4-B5)*B8*B7*8</f>
-        <v>368</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -4925,7 +5126,7 @@
       </c>
       <c r="B10" s="3">
         <f>IFERROR(B9/B4,0)</f>
-        <v>16</v>
+        <v>2.0000000000000004</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -4964,7 +5165,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5011,19 +5212,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -5035,19 +5236,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -5059,19 +5260,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -5083,19 +5284,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F6" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -5107,19 +5308,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F7" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
@@ -5137,7 +5338,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5160,7 +5361,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5183,7 +5384,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5206,7 +5407,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5229,7 +5430,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F12" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5243,11 +5444,11 @@
       </c>
       <c r="C13" s="3">
         <f>SUBTOTAL(109,SprintBacklog[Estimated Hours])</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3">
         <f>SUBTOTAL(109,SprintBacklog[Remaining Hours])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5265,10 +5466,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5299,15 +5500,15 @@
       </c>
       <c r="B3" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="15">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5317,14 +5518,14 @@
       </c>
       <c r="B4" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>41.130434782608695</v>
+        <v>38.571428571428569</v>
       </c>
       <c r="C4" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D4" s="16">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -5334,14 +5535,14 @@
       </c>
       <c r="B5" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>39.260869565217391</v>
+        <v>37.142857142857146</v>
       </c>
       <c r="C5" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D5" s="16">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -5351,14 +5552,14 @@
       </c>
       <c r="B6" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>37.391304347826086</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="C6" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>-5</v>
+        <v>34</v>
       </c>
       <c r="D6" s="16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="15"/>
     </row>
@@ -5368,11 +5569,11 @@
       </c>
       <c r="B7" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>35.521739130434781</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="C7" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>-21</v>
+        <v>32</v>
       </c>
       <c r="D7" s="16">
         <v>36</v>
@@ -5385,11 +5586,11 @@
       </c>
       <c r="B8" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>33.652173913043477</v>
+        <v>32.857142857142854</v>
       </c>
       <c r="C8" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>-37</v>
+        <v>30</v>
       </c>
       <c r="D8" s="16">
         <v>36</v>
@@ -5402,14 +5603,14 @@
       </c>
       <c r="B9" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>31.782608695652172</v>
+        <v>31.428571428571431</v>
       </c>
       <c r="C9" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>-53</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="D9" s="16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -5419,14 +5620,14 @@
       </c>
       <c r="B10" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>29.913043478260867</v>
+        <v>30</v>
       </c>
       <c r="C10" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>-69</v>
+        <v>25.999999999999996</v>
       </c>
       <c r="D10" s="16">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="15"/>
     </row>
@@ -5436,14 +5637,14 @@
       </c>
       <c r="B11" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>28.043478260869563</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="C11" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>-85</v>
+        <v>23.999999999999996</v>
       </c>
       <c r="D11" s="16">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -5453,14 +5654,14 @@
       </c>
       <c r="B12" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>26.173913043478262</v>
+        <v>27.142857142857142</v>
       </c>
       <c r="C12" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>-101</v>
+        <v>21.999999999999996</v>
       </c>
       <c r="D12" s="16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -5470,16 +5671,304 @@
       </c>
       <c r="B13" s="15">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
-        <v>24.304347826086957</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="C13" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>-117</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="D13" s="16">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="C14" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="D14" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="C15" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>15.999999999999993</v>
+      </c>
+      <c r="D15" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="C16" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>13.999999999999993</v>
+      </c>
+      <c r="D16" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="C17" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>11.999999999999993</v>
+      </c>
+      <c r="D17" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>18.571428571428569</v>
+      </c>
+      <c r="C18" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>9.9999999999999929</v>
+      </c>
+      <c r="D18" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="C19" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>7.9999999999999929</v>
+      </c>
+      <c r="D19" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>15.714285714285715</v>
+      </c>
+      <c r="C20" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="D20" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="C21" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>3.9999999999999929</v>
+      </c>
+      <c r="D21" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="C22" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>1.9999999999999929</v>
+      </c>
+      <c r="D22" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>11.428571428571427</v>
+      </c>
+      <c r="C23" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>10</v>
+      </c>
+      <c r="C24" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>-2.0000000000000071</v>
+      </c>
+      <c r="D24" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>8.5714285714285694</v>
+      </c>
+      <c r="C25" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>-4.0000000000000071</v>
+      </c>
+      <c r="D25" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>7.1428571428571388</v>
+      </c>
+      <c r="C26" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>-6.0000000000000071</v>
+      </c>
+      <c r="D26" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>5.7142857142857153</v>
+      </c>
+      <c r="C27" s="15">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>-8.0000000000000142</v>
+      </c>
+      <c r="D27" s="86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="84">
+        <v>25</v>
+      </c>
+      <c r="B28" s="85">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>4.2857142857142847</v>
+      </c>
+      <c r="C28" s="85">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>-10.000000000000014</v>
+      </c>
+      <c r="D28" s="86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="84">
+        <v>26</v>
+      </c>
+      <c r="B29" s="85">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>2.8571428571428541</v>
+      </c>
+      <c r="C29" s="85">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>-12.000000000000014</v>
+      </c>
+      <c r="D29" s="86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="82">
+        <v>27</v>
+      </c>
+      <c r="B30" s="83">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>1.4285714285714306</v>
+      </c>
+      <c r="C30" s="83">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>-14.000000000000014</v>
+      </c>
+      <c r="D30" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="82">
+        <v>28</v>
+      </c>
+      <c r="B31" s="83">
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="83">
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
+        <v>-16.000000000000014</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3SCRUM/SCRUM_PlantillaExcel_grupo4.xlsx
+++ b/3SCRUM/SCRUM_PlantillaExcel_grupo4.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\3SCRUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693F9F9-E2E0-4135-92A5-6A8B54802434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B05E7CC-CCED-4264-9ED1-4118A58D1000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" tabRatio="696" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="5" r:id="rId2"/>
     <sheet name="Sprint2" sheetId="6" r:id="rId3"/>
     <sheet name="Sprint1Info" sheetId="2" r:id="rId4"/>
-    <sheet name="Backlog1Table" sheetId="1" r:id="rId5"/>
-    <sheet name="BurnDown1Table" sheetId="3" r:id="rId6"/>
+    <sheet name="Sprint2Info" sheetId="7" r:id="rId5"/>
+    <sheet name="Backlog1Table" sheetId="1" r:id="rId6"/>
+    <sheet name="Backlog2Table" sheetId="8" r:id="rId7"/>
+    <sheet name="BurnDown1Table" sheetId="3" r:id="rId8"/>
+    <sheet name="BurnDown2Table" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="DevRate">Sprint1Info!$B$10</definedName>
+    <definedName name="DevRate2">Sprint2Info!$B$10</definedName>
     <definedName name="RemainingHours">SprintBacklog[[#Totals],[Remaining Hours]]</definedName>
+    <definedName name="RemainingHours2">SprintBacklog2[[#Totals],[Remaining Hours]]</definedName>
     <definedName name="StartDate">Sprint1Info!$B$2</definedName>
+    <definedName name="StartDate2">Sprint2Info!$B$2</definedName>
     <definedName name="TotalHours">SprintBacklog[[#Totals],[Estimated Hours]]</definedName>
+    <definedName name="TotalHours2">SprintBacklog2[[#Totals],[Estimated Hours]]</definedName>
     <definedName name="WorkingDays">Sprint1Info!$B$6</definedName>
+    <definedName name="WorkingDays2">Sprint2Info!$B$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +43,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,8 +88,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PowerUps for Excel</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B9326430-DFB2-4C13-B7AE-B8AE913BB6C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PowerUps for Excel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Create one row per day in the sprint.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="138">
   <si>
     <t>Start Date</t>
   </si>
@@ -486,6 +531,12 @@
   </si>
   <si>
     <t>Historial del Riego</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -873,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,21 +1017,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -999,12 +1035,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1128,6 +1208,531 @@
         <color theme="1"/>
         <name val="Segoe UI Light"/>
         <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1606,7 +2211,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint</a:t>
+              <a:t>Sprint 1</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2379,6 +2984,869 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-57AD-4103-AA38-D12E8EA744C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="389449568"/>
+        <c:axId val="389444080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="389449568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389444080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389444080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389449568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Burn Down</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurnDown2Table!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target Burn Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BurnDown2Table!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurnDown2Table!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1489-4849-8CBC-AFC854B0AA28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurnDown2Table!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast Burn Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BurnDown2Table!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurnDown2Table!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1489-4849-8CBC-AFC854B0AA28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurnDown2Table!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Burn Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BurnDown2Table!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurnDown2Table!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1489-4849-8CBC-AFC854B0AA28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2618,7 +4086,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3164,48 +5175,138 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC566531-0E21-4ACB-AE01-DBB9F1D6B4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:B10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:B10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="26" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="24" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="55" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="53" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
-      <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
-      <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58556C3A-B4B1-4D4E-BAD7-135651E2086F}" name="Table25" displayName="Table25" ref="A2:B10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{54DA4B71-2C0D-4ECC-A5A2-27E290092A86}" name="Column1" headerRowDxfId="33" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{902E3035-D934-4486-B472-F5BA993F03E6}" name="Column2" headerRowDxfId="31" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49">
+  <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="47" totalsRowDxfId="7">
+      <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="45" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="44" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="3">
+      <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="42" totalsRowDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DB9AFC5-37E0-4A35-B1BA-DE1F476A120C}" name="SprintBacklog2" displayName="SprintBacklog2" ref="A2:G13" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+  <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E2388A4B-BBF1-44B2-BF34-B4B21B8A7AA6}" name="Sprint" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{DD5313D2-9FC4-46CB-BA6B-4DAB75529280}" name="Item ID" dataDxfId="24" totalsRowDxfId="23">
+      <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{32799E65-0D5A-4DC4-8612-BFA7358D26BE}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9EA777C3-B441-4598-A21C-14381ECEFEA9}" name="Task Name" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{35E17D3C-196D-4369-8017-6C61EFE0E03A}" name="Assigned To" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{C41DF538-5001-464E-BBCF-46EA4669E899}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
+      <calculatedColumnFormula>SprintBacklog2[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D922ABE3-1CA2-46DC-85C0-FDC04C1D4903}" name="Status" dataDxfId="14" totalsRowDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D31" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A2:D31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="38">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="37">
       <calculatedColumnFormula>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{859BECC2-42C5-4437-A862-C2A40BC5ECE1}" name="Table37" displayName="Table37" ref="A2:D23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:D23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A14715B8-47C0-4A0F-8CAB-9ED7BA502BAD}" name="Work Day" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B31499C0-490A-44DF-9151-18AD36CEE45E}" name="Target Burn Down" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{90BF0757-C8D8-4FE0-AFFD-D6E6E09558F7}" name="Forecast Burn Down" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{14356D4C-9117-44B7-AD53-26E2FE5E781A}" name="Actual Burn Down" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3515,7 +5616,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="65" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -3530,18 +5631,18 @@
       <c r="E2" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="67" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -3559,15 +5660,15 @@
       <c r="F3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="61" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -3585,15 +5686,15 @@
       <c r="F4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="61" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="64" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -3611,15 +5712,15 @@
       <c r="F5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="61" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -3637,15 +5738,15 @@
       <c r="F6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="61" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -3663,15 +5764,15 @@
       <c r="F7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="61" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -3689,15 +5790,15 @@
       <c r="F8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="61" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -3715,15 +5816,15 @@
       <c r="F9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="61" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="64" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -3741,10 +5842,10 @@
       <c r="F10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3767,10 +5868,10 @@
       <c r="F11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="61" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3793,10 +5894,10 @@
       <c r="F12" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="61" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3819,10 +5920,10 @@
       <c r="F13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="61" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3845,10 +5946,10 @@
       <c r="F14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="61" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3871,15 +5972,15 @@
       <c r="F15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="61" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="69" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -3897,15 +5998,15 @@
       <c r="F16" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="69" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -3923,15 +6024,15 @@
       <c r="F17" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="71" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="81"/>
+      <c r="D21" s="72"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
@@ -3948,7 +6049,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4029,12 +6130,12 @@
       <c r="B4" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="50" t="s">
         <v>91</v>
       </c>
@@ -4048,12 +6149,12 @@
       <c r="B5" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="36">
@@ -4063,10 +6164,10 @@
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
       <c r="I6" s="39"/>
@@ -4074,10 +6175,10 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="52"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="52"/>
       <c r="H7" s="44" t="s">
         <v>72</v>
@@ -4163,12 +6264,12 @@
       <c r="B11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="53" t="s">
         <v>89</v>
       </c>
@@ -4182,12 +6283,12 @@
       <c r="B12" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="59"/>
       <c r="H12" s="59"/>
       <c r="I12" s="36">
@@ -4197,10 +6298,10 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="41"/>
@@ -4208,10 +6309,10 @@
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="18"/>
       <c r="H14" s="44" t="s">
         <v>72</v>
@@ -4262,7 +6363,7 @@
       <c r="E16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="68" t="s">
         <v>97</v>
       </c>
       <c r="G16" s="21" t="s">
@@ -4297,12 +6398,12 @@
       <c r="B18" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="33" t="s">
         <v>92</v>
       </c>
@@ -4316,12 +6417,12 @@
       <c r="B19" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
       <c r="I19" s="36">
@@ -4331,10 +6432,10 @@
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="39"/>
@@ -4396,7 +6497,7 @@
       <c r="E23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="68" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="21" t="s">
@@ -4431,12 +6532,12 @@
       <c r="B25" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="55" t="s">
         <v>90</v>
       </c>
@@ -4450,12 +6551,12 @@
       <c r="B26" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="59"/>
       <c r="H26" s="59"/>
       <c r="I26" s="36">
@@ -4465,10 +6566,10 @@
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="37"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="54"/>
       <c r="H27" s="54"/>
       <c r="I27" s="39"/>
@@ -4530,7 +6631,7 @@
       <c r="E30" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="77" t="s">
+      <c r="F30" s="68" t="s">
         <v>98</v>
       </c>
       <c r="G30" s="21" t="s">
@@ -4565,12 +6666,12 @@
       <c r="B32" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
       <c r="G32" s="55" t="s">
         <v>93</v>
       </c>
@@ -4584,12 +6685,12 @@
       <c r="B33" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
       <c r="I33" s="36">
@@ -4599,10 +6700,10 @@
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="54"/>
       <c r="H34" s="54"/>
       <c r="I34" s="39"/>
@@ -4683,10 +6784,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C26:F26"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C25:F25"/>
@@ -4700,6 +6797,10 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4711,7 +6812,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4799,12 +6900,12 @@
       <c r="B5" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="33" t="s">
         <v>89</v>
       </c>
@@ -4817,12 +6918,12 @@
       <c r="B6" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="59" t="s">
         <v>91</v>
       </c>
@@ -4833,20 +6934,20 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="37"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="18"/>
       <c r="H8" s="46" t="s">
         <v>72</v>
@@ -4928,30 +7029,30 @@
       <c r="B12" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="33" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="40">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="59" t="s">
         <v>90</v>
       </c>
@@ -4964,26 +7065,26 @@
       <c r="B14" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="59" t="s">
         <v>93</v>
       </c>
       <c r="H14" s="59"/>
       <c r="I14" s="36">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="37"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -4994,7 +7095,7 @@
       </c>
       <c r="I16" s="45">
         <f>SUM(I12:I15)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
@@ -5003,19 +7104,19 @@
       </c>
       <c r="I17" s="42">
         <f>I8+I16</f>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5027,7 +7128,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5161,11 +7262,149 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D483C2C-52E2-4BA6-9AB2-B144C8787130}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44585</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="6">
+        <v>44610</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <f>NETWORKDAYS(B2,B3)</f>
+        <v>20</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B4-B5</f>
+        <v>20</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <f>(B4-B5)*B8*B7*8</f>
+        <v>40</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <f>IFERROR(B9/B4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5464,12 +7703,316 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9AB3C-3FAB-4015-8837-BD147EF4571C}">
+  <dimension ref="A2:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="9.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>IFERROR(B2+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B12" si="0">IFERROR(B3+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="11">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="11">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="11">
+        <f>SprintBacklog2[[#This Row],[Estimated Hours]]</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SprintBacklog2[[#This Row],[Estimated Hours]]</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="11">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="11">
+        <f>SprintBacklog2[[#This Row],[Estimated Hours]]</f>
+        <v>20</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="11">
+        <f>SprintBacklog2[[#This Row],[Estimated Hours]]</f>
+        <v>20</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="11">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="11">
+        <f>SprintBacklog2[[#This Row],[Estimated Hours]]</f>
+        <v>40</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUBTOTAL(109,SprintBacklog2[Estimated Hours])</f>
+        <v>32</v>
+      </c>
+      <c r="F13" s="3">
+        <f>SUBTOTAL(109,SprintBacklog2[Remaining Hours])</f>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{E9E24F36-8232-4D64-AB8A-61EEE61678EC}">
+      <formula1>"In Progress, Completed, Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5902,51 +8445,51 @@
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>-8.0000000000000142</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="84">
+      <c r="A28" s="75">
         <v>25</v>
       </c>
-      <c r="B28" s="85">
+      <c r="B28" s="76">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>4.2857142857142847</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="76">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>-10.000000000000014</v>
       </c>
-      <c r="D28" s="86">
+      <c r="D28" s="77">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="84">
+      <c r="A29" s="75">
         <v>26</v>
       </c>
-      <c r="B29" s="85">
+      <c r="B29" s="76">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>2.8571428571428541</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="76">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>-12.000000000000014</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="77">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="82">
+      <c r="A30" s="73">
         <v>27</v>
       </c>
-      <c r="B30" s="83">
+      <c r="B30" s="74">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>1.4285714285714306</v>
       </c>
-      <c r="C30" s="83">
+      <c r="C30" s="74">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>-14.000000000000014</v>
       </c>
@@ -5955,20 +8498,446 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="82">
+      <c r="A31" s="73">
         <v>28</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B31" s="74">
         <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="83">
+      <c r="C31" s="74">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>-16.000000000000014</v>
       </c>
       <c r="D31" s="16">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85ABA02-8B8D-4FC3-A9BD-D6ADA7A87464}">
+  <dimension ref="A2:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="7.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="50.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="87"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="C3" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>32</v>
+      </c>
+      <c r="D3" s="15">
+        <f>Table37[[#This Row],[Target Burn Down]]</f>
+        <v>32</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>30.4</v>
+      </c>
+      <c r="C4" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="16">
+        <v>31</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>28.8</v>
+      </c>
+      <c r="C5" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>28</v>
+      </c>
+      <c r="D5" s="16">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>27.2</v>
+      </c>
+      <c r="C6" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>26</v>
+      </c>
+      <c r="D6" s="16">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>25.6</v>
+      </c>
+      <c r="C7" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>24</v>
+      </c>
+      <c r="D7" s="16">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>24</v>
+      </c>
+      <c r="C8" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>22</v>
+      </c>
+      <c r="D8" s="16">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>22.4</v>
+      </c>
+      <c r="C9" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="16">
+        <v>27</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>20.799999999999997</v>
+      </c>
+      <c r="C10" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>18</v>
+      </c>
+      <c r="D10" s="16">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>19.2</v>
+      </c>
+      <c r="C11" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>16</v>
+      </c>
+      <c r="D11" s="16">
+        <v>22</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C12" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>14</v>
+      </c>
+      <c r="D12" s="16">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="C13" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="16">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="C14" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="C15" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>11.2</v>
+      </c>
+      <c r="C16" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>9.5999999999999979</v>
+      </c>
+      <c r="C17" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="C19" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="C20" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>-2</v>
+      </c>
+      <c r="D20" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="C21" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>-4</v>
+      </c>
+      <c r="D21" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="C22" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>-6</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15">
+        <f>IFERROR(TotalHours2-(Table37[[#This Row],[Work Day]]*(TotalHours2/WorkingDays2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <f>_xlfn.SINGLE(TotalHours2)-(Table37[[#This Row],[Work Day]]*_xlfn.SINGLE(DevRate2))</f>
+        <v>-8</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
